--- a/Problem set 3 ND.xlsx
+++ b/Problem set 3 ND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE38FCB-5ECC-4C5E-B684-7588DF05831D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4156370-AAE7-4BD8-B46F-9B807F8594EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="4095" windowWidth="21600" windowHeight="14130" xr2:uid="{740FD8DC-7B53-4E78-8E3A-26D1AA96C0C6}"/>
+    <workbookView xWindow="4200" yWindow="1965" windowWidth="21600" windowHeight="14130" activeTab="5" xr2:uid="{740FD8DC-7B53-4E78-8E3A-26D1AA96C0C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="2" r:id="rId1"/>
@@ -23,13 +23,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Question 4'!$B$1:$B$10</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Question 6'!$B$2:$B$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Question 6'!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Question 6'!$C$2:$C$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -330,7 +327,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -448,7 +445,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -475,7 +472,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,7 +485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4873,7 +4869,7 @@
         <s v="Stratus Building Solutions"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="# U.S. Locations" numFmtId="165">
+    <cacheField name="# U.S. Locations" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1431" maxValue="37496"/>
     </cacheField>
   </cacheFields>
@@ -4971,7 +4967,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E903E7B4-1C0D-46CA-8C2C-363A48CCB309}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E903E7B4-1C0D-46CA-8C2C-363A48CCB309}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -4999,7 +4995,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -5397,7 +5393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86A44D-B331-4F4D-8345-6180675E97C8}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -5960,7 +5956,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <f>B10/10000</f>
         <v>11.6</v>
       </c>
@@ -6013,16 +6009,16 @@
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>452359.19</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>21987.246200000001</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>175</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <v>21</v>
       </c>
     </row>
@@ -6030,16 +6026,16 @@
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>379401.94</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>27981.443200000002</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>121</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>12</v>
       </c>
     </row>
@@ -6047,16 +6043,16 @@
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>325000.78000000003</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>12499.3452</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>124</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>14</v>
       </c>
     </row>
@@ -6064,16 +6060,16 @@
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>234091.39</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>14567.9833</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>48</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>9</v>
       </c>
     </row>
@@ -6081,16 +6077,16 @@
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>127845.22</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>13322.971299999999</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>17</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>3</v>
       </c>
     </row>
@@ -6098,16 +6094,16 @@
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>87654.21</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>1250.1393</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>21</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>4</v>
       </c>
     </row>
@@ -6115,16 +6111,16 @@
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>87423.91</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>7642.9011</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>28</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>3</v>
       </c>
     </row>
@@ -6132,16 +6128,16 @@
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>31733.59</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>672.91110000000003</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>7</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6149,16 +6145,16 @@
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>13678.21</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>239.9434</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>9</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>7</v>
       </c>
     </row>
@@ -6168,14 +6164,14 @@
       <sortCondition descending="1" ref="B1:B10"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>10</formula>
+  <conditionalFormatting sqref="D2:D10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>100</formula>
+  <conditionalFormatting sqref="E2:E10">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6209,7 +6205,7 @@
       <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2">
         <v>37496</v>
       </c>
     </row>
@@ -6217,7 +6213,7 @@
       <c r="A3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3">
         <v>3183</v>
       </c>
     </row>
@@ -6225,7 +6221,7 @@
       <c r="A4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4">
         <v>1618</v>
       </c>
     </row>
@@ -6233,7 +6229,7 @@
       <c r="A5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5">
         <v>1877</v>
       </c>
     </row>
@@ -6241,7 +6237,7 @@
       <c r="A6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6">
         <v>1668</v>
       </c>
     </row>
@@ -6249,7 +6245,7 @@
       <c r="A7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7">
         <v>9947</v>
       </c>
     </row>
@@ -6257,7 +6253,7 @@
       <c r="A8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8">
         <v>1864</v>
       </c>
     </row>
@@ -6265,7 +6261,7 @@
       <c r="A9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9">
         <v>1901</v>
       </c>
     </row>
@@ -6273,7 +6269,7 @@
       <c r="A10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10">
         <v>12394</v>
       </c>
     </row>
@@ -6281,7 +6277,7 @@
       <c r="A11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11">
         <v>7683</v>
       </c>
     </row>
@@ -6289,7 +6285,7 @@
       <c r="A12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12">
         <v>16224</v>
       </c>
     </row>
@@ -6297,7 +6293,7 @@
       <c r="A13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13">
         <v>25199</v>
       </c>
     </row>
@@ -6305,7 +6301,7 @@
       <c r="A14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14">
         <v>1431</v>
       </c>
     </row>
@@ -6313,7 +6309,7 @@
       <c r="A15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15">
         <v>32805</v>
       </c>
     </row>
@@ -6321,7 +6317,7 @@
       <c r="A16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16">
         <v>13281</v>
       </c>
     </row>
@@ -6329,7 +6325,7 @@
       <c r="A17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17">
         <v>1572</v>
       </c>
     </row>
@@ -6337,7 +6333,7 @@
       <c r="A18" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18">
         <v>5018</v>
       </c>
     </row>
@@ -6345,7 +6341,7 @@
       <c r="A19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19">
         <v>34871</v>
       </c>
     </row>
@@ -6353,7 +6349,7 @@
       <c r="A20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20">
         <v>2130</v>
       </c>
     </row>
@@ -6361,7 +6357,7 @@
       <c r="A21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21">
         <v>2155</v>
       </c>
     </row>
@@ -6369,7 +6365,7 @@
       <c r="A22" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22">
         <v>214317</v>
       </c>
     </row>
@@ -6383,7 +6379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86513B73-8C33-4723-9912-7A5475C662CD}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
